--- a/20180126_SmartCut/Meeting/20190226 Meeting/ida/20190221 base shear to sa.xlsx
+++ b/20180126_SmartCut/Meeting/20190226 Meeting/ida/20190221 base shear to sa.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Modal</t>
   </si>
@@ -39,6 +40,26 @@
   </si>
   <si>
     <t>PUSHX-T Min</t>
+  </si>
+  <si>
+    <t>sa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sa(g)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disp(mm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tonf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -379,8 +400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22:G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -529,6 +550,14 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="1">
@@ -1199,6 +1228,17 @@
       </c>
       <c r="N20" s="1">
         <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -1894,4 +1934,160 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>24.871400000000001</v>
+      </c>
+      <c r="C2">
+        <v>0.114</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E12" si="0">A2/C2</f>
+        <v>218.17017543859649</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>44.346299999999999</v>
+      </c>
+      <c r="C3">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>217.38382352941179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>52.206400000000002</v>
+      </c>
+      <c r="C4">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>219.35462184873953</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>51.944400000000002</v>
+      </c>
+      <c r="C5">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>229.84247787610619</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>51.493299999999998</v>
+      </c>
+      <c r="C6">
+        <v>0.223</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>230.91165919282511</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>51.041200000000003</v>
+      </c>
+      <c r="C7">
+        <v>0.22</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>232.00545454545457</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>50.589100000000002</v>
+      </c>
+      <c r="C8">
+        <v>0.218</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>232.06009174311927</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>50.137099999999997</v>
+      </c>
+      <c r="C9">
+        <v>0.215</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>233.19581395348837</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>49.685000000000002</v>
+      </c>
+      <c r="C10">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>233.26291079812208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>49.232999999999997</v>
+      </c>
+      <c r="C11">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>233.33175355450237</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>48.906599999999997</v>
+      </c>
+      <c r="C12">
+        <v>0.21</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>232.88857142857142</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>